--- a/0000 PLIKI/wyniki_kart.xlsx
+++ b/0000 PLIKI/wyniki_kart.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="51480" yWindow="-20540" windowWidth="41120" windowHeight="25700" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result 2023-05-25_14-09-45" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="result 2023-05-25_14-28-37" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="result 2023-05-25_18-40-23" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,11 +416,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -460,7 +460,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4910845678901</t>
+          <t>4549356789012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4123567890123</t>
+          <t>4910845678901</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4678901234567</t>
+          <t>4123567890123</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4789012345678</t>
+          <t>4678901234567</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4901234567890</t>
+          <t>4789012345678</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4136789012345</t>
+          <t>4901234567890</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4767890123456</t>
+          <t>4136789012345</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4980123456789</t>
+          <t>4767890123456</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4578901234567</t>
+          <t>4980123456789</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4101234567890</t>
+          <t>4578901234567</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4634567890123</t>
+          <t>4101234567890</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4745678901234</t>
+          <t>4634567890123</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4912345678901</t>
+          <t>4745678901234</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4145678901234</t>
+          <t>4912345678901</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4878901234567</t>
+          <t>4145678901234</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -715,7 +715,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4989012345678</t>
+          <t>4878901234567</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4190123456789</t>
+          <t>4989012345678</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4523456789012</t>
+          <t>4190123456789</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4756789012345</t>
+          <t>4523456789012</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -783,7 +783,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4967890123456</t>
+          <t>4756789012345</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -800,7 +800,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4179012345678</t>
+          <t>4967890123456</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -817,7 +817,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4580123456789</t>
+          <t>4179012345678</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4712345678901</t>
+          <t>4580123456789</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4925678901234</t>
+          <t>4712345678901</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4138901234567</t>
+          <t>4925678901234</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4769012345678</t>
+          <t>4138901234567</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -902,7 +902,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4970123456789</t>
+          <t>4769012345678</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4182345678901</t>
+          <t>4970123456789</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -936,9 +936,555 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>4182345678901</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>373096451820913</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2603718425309670</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>4513456789012</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>344510923678015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2498015320697810</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amex</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MasterCard</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4549356789012</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>349108523701926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5362916823567120</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4910845678901</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>372506491870345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5568041298179090</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4123567890123</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>345876215093420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2504823940510860</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4678901234567</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>373509826410932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2634112197628160</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4789012345678</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>341590327851940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2587346173984120</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4901234567890</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>372645091283405</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2236130148367250</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4136789012345</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>349871023456781</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2459028765892010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4767890123456</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>348510293768201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2680193647589200</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4980123456789</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>372654809123506</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2253150948716320</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4578901234567</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>349102376481095</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2267102834651980</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4101234567890</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>341285093721064</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2519875369103270</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4634567890123</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>370918524093682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2321257458937410</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4745678901234</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>349710236587412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2641032879150320</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4912345678901</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>372593042185760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2719538065492170</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4145678901234</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>341028593761490</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2410658931754200</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4878901234567</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>373509216845732</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2334098126547800</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4989012345678</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>347192653810923</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2378401596248570</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4190123456789</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>371094520367891</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2705329841670910</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4523456789012</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>342590137860293</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2536140978504320</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4756789012345</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>374519086201432</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2301896475209310</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4967890123456</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>349218034576091</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2546820197354910</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4179012345678</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>374509183620143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2337610425689300</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4580123456789</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>342569018730495</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2275904361895720</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4712345678901</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>371092836540187</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2662089357164910</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4925678901234</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>347518092365010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2675401968031250</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4138901234567</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>343205917860912</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2663971584301290</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4769012345678</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>371298065439210</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2389476152097830</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4970123456789</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>349081234567092</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2671049587162930</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4182345678901</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>373096451820913</t>
@@ -951,6 +1497,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4513456789012</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>344510923678015</t>
